--- a/autompg.xlsx
+++ b/autompg.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="autompg" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="gas-prices" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="331">
   <si>
     <t>mpg</t>
   </si>
@@ -950,13 +951,98 @@
   </si>
   <si>
     <t>chevy s-10</t>
+  </si>
+  <si>
+    <t>U.S. Department of Energy, Vehicle Technology Office</t>
+  </si>
+  <si>
+    <t>Fact of the Week # 915</t>
+  </si>
+  <si>
+    <t>Average Annual Gasoline Pump Price, 1929 - 2015</t>
+  </si>
+  <si>
+    <t>Average Retail Price of Gasoline, 1929 - 2015</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Retail Gasoline Price 
+(Current dollars/gallon)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retail Gasoline Price 
+(Constant 2015 dollars/gallon) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes: </t>
+  </si>
+  <si>
+    <t>Retail price includes Federal and State Taxes.</t>
+  </si>
+  <si>
+    <t>Price is for Regular Leaded Gasoline until 1990 and for Regular Unleaded Gasoline thereafter.</t>
+  </si>
+  <si>
+    <t>Current dollars are not adjusted for inflation; constant 2015 dollars are adjusted for inflation so that a comparison can be made in purchasing power among years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant dollars calculated using the Gross Domestic Product Inflation Index.  </t>
+  </si>
+  <si>
+    <t>Sources:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF444444"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Energy Information Administration, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF444444"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>Monthly Energy Review, Table 9.4</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF444444"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.eia.gov/totalenergy/data/monthly/index.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Department of Commerce, Bureau of Economic Analysis, National Income and Product Accounts, </t>
+  </si>
+  <si>
+    <t>Table 1.1.9. Implicit Price Deflators for Gross Domestic Product, February 2016.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.bea.gov/iTable/iTable.cfm?ReqID=9&amp;step=1#reqid=9&amp;step=3&amp;isuri=1&amp;903=13 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -968,6 +1054,62 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="7.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -977,19 +1119,95 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -998,8 +1216,253 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11647727272727272"/>
+          <c:y val="0.04541606445969887"/>
+          <c:w val="0.8492151132399136"/>
+          <c:h val="0.837086598010514"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng" w="38100">
+              <a:solidFill>
+                <a:srgbClr val="003366">
+                  <a:alpha val="100000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gas-prices'!$B$8:$B$94</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gas-prices'!$C$8:$C$94</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng" w="38100">
+              <a:solidFill>
+                <a:srgbClr val="3366FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gas-prices'!$B$8:$B$94</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gas-prices'!$D$8:$D$94</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="80951396"/>
+        <c:axId val="94322037"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80951396"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94322037"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="94322037"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="1" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Dollars per gallon</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.020865031707325805"/>
+              <c:y val="0.3330391025962519"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80951396"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent2"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9124950" cy="5676900"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1019,28 +1482,28 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="003366"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="3366FF"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="FFCE2D"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFA600"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="339933"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="92D050"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="ED5E00"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="ED5E00"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
@@ -12606,4 +13069,2584 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="10.63"/>
+    <col customWidth="1" min="2" max="2" width="13.88"/>
+    <col customWidth="1" min="3" max="3" width="15.75"/>
+    <col customWidth="1" min="4" max="4" width="15.5"/>
+    <col customWidth="1" min="5" max="6" width="10.63"/>
+    <col customWidth="1" min="7" max="7" width="13.5"/>
+    <col customWidth="1" min="8" max="26" width="10.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" ht="55.5" customHeight="1">
+      <c r="B7" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="14">
+        <v>1929.0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.21420000000000003</v>
+      </c>
+      <c r="D8" s="15">
+        <v>2.3759186944219888</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="14">
+        <v>1930.0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.19949999999999998</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2.2966456738332455</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="14">
+        <v>1931.0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.1698</v>
+      </c>
+      <c r="D10" s="15">
+        <v>2.178660035067212</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="14">
+        <v>1932.0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.1793</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2.6057491195551434</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="14">
+        <v>1933.0</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.1782</v>
+      </c>
+      <c r="D12" s="15">
+        <v>2.663101347855684</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="14">
+        <v>1934.0</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.1885</v>
+      </c>
+      <c r="D13" s="15">
+        <v>2.6701612466124662</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="14">
+        <v>1935.0</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.1884</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2.6150863429438544</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="14">
+        <v>1936.0</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.1945</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2.6683766404199476</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="14">
+        <v>1937.0</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.1999</v>
+      </c>
+      <c r="D16" s="15">
+        <v>2.628779597460165</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="14">
+        <v>1938.0</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.19510000000000002</v>
+      </c>
+      <c r="D17" s="15">
+        <v>2.640959637439882</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="14">
+        <v>1939.0</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.1875</v>
+      </c>
+      <c r="D18" s="15">
+        <v>2.5620954188970497</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="14">
+        <v>1940.0</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.1841</v>
+      </c>
+      <c r="D19" s="15">
+        <v>2.485316037387775</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="14">
+        <v>1941.0</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.1923</v>
+      </c>
+      <c r="D20" s="15">
+        <v>2.4318195967741936</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="14">
+        <v>1942.0</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.2043</v>
+      </c>
+      <c r="D21" s="15">
+        <v>2.3935743515850145</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="14">
+        <v>1943.0</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.2053</v>
+      </c>
+      <c r="D22" s="15">
+        <v>2.3006804594180705</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="14">
+        <v>1944.0</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.2059</v>
+      </c>
+      <c r="D23" s="15">
+        <v>2.254016684950633</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="14">
+        <v>1945.0</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.205</v>
+      </c>
+      <c r="D24" s="15">
+        <v>2.187231240279938</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="14">
+        <v>1946.0</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.2077</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1.9623520313306935</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="14">
+        <v>1947.0</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.2311</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1.968429712112982</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="14">
+        <v>1948.0</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.2588</v>
+      </c>
+      <c r="D27" s="15">
+        <v>2.088033781697905</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="14">
+        <v>1949.0</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.268</v>
+      </c>
+      <c r="D28" s="15">
+        <v>2.166081731831235</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="14">
+        <v>1950.0</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.268</v>
+      </c>
+      <c r="D29" s="15">
+        <v>2.140236886140415</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="14">
+        <v>1951.0</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0.272</v>
+      </c>
+      <c r="D30" s="15">
+        <v>2.028854580048926</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="14">
+        <v>1952.0</v>
+      </c>
+      <c r="C31" s="15">
+        <v>0.274</v>
+      </c>
+      <c r="D31" s="15">
+        <v>2.00882701041945</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="14">
+        <v>1953.0</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0.287</v>
+      </c>
+      <c r="D32" s="15">
+        <v>2.0784541136108725</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="14">
+        <v>1954.0</v>
+      </c>
+      <c r="C33" s="15">
+        <v>0.29</v>
+      </c>
+      <c r="D33" s="15">
+        <v>2.080822983396522</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="14">
+        <v>1955.0</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0.291</v>
+      </c>
+      <c r="D34" s="15">
+        <v>2.0529723632624206</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="20"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="19"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="14">
+        <v>1956.0</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0.299</v>
+      </c>
+      <c r="D35" s="15">
+        <v>2.0396701883040205</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="20"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="19"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="14">
+        <v>1957.0</v>
+      </c>
+      <c r="C36" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="D36" s="15">
+        <v>2.0467831578947364</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="20"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="19"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="14">
+        <v>1958.0</v>
+      </c>
+      <c r="C37" s="15">
+        <v>0.304</v>
+      </c>
+      <c r="D37" s="15">
+        <v>1.9627767778365977</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="20"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="19"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="14">
+        <v>1959.0</v>
+      </c>
+      <c r="C38" s="15">
+        <v>0.305</v>
+      </c>
+      <c r="D38" s="15">
+        <v>1.9422715669780124</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="20"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="19"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="14">
+        <v>1960.0</v>
+      </c>
+      <c r="C39" s="15">
+        <v>0.311</v>
+      </c>
+      <c r="D39" s="15">
+        <v>1.953395342183566</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="20"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="19"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="14">
+        <v>1961.0</v>
+      </c>
+      <c r="C40" s="15">
+        <v>0.308</v>
+      </c>
+      <c r="D40" s="15">
+        <v>1.9134210198653008</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="20"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="19"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="14">
+        <v>1962.0</v>
+      </c>
+      <c r="C41" s="15">
+        <v>0.306</v>
+      </c>
+      <c r="D41" s="15">
+        <v>1.8779325729620935</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="20"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="19"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="14">
+        <v>1963.0</v>
+      </c>
+      <c r="C42" s="15">
+        <v>0.304</v>
+      </c>
+      <c r="D42" s="15">
+        <v>1.8448235294117648</v>
+      </c>
+      <c r="F42" s="18"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="20"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="19"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="14">
+        <v>1964.0</v>
+      </c>
+      <c r="C43" s="15">
+        <v>0.304</v>
+      </c>
+      <c r="D43" s="15">
+        <v>1.8168990525971904</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="20"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="19"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="14">
+        <v>1965.0</v>
+      </c>
+      <c r="C44" s="15">
+        <v>0.312</v>
+      </c>
+      <c r="D44" s="15">
+        <v>1.8312107795957648</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="20"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="19"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="14">
+        <v>1966.0</v>
+      </c>
+      <c r="C45" s="15">
+        <v>0.321</v>
+      </c>
+      <c r="D45" s="15">
+        <v>1.8325899516305195</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="20"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="19"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="14">
+        <v>1967.0</v>
+      </c>
+      <c r="C46" s="15">
+        <v>0.332</v>
+      </c>
+      <c r="D46" s="15">
+        <v>1.8418398867886383</v>
+      </c>
+      <c r="F46" s="18"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="20"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="19"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="14">
+        <v>1968.0</v>
+      </c>
+      <c r="C47" s="15">
+        <v>0.337</v>
+      </c>
+      <c r="D47" s="15">
+        <v>1.7933523537111555</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="20"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="19"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="14">
+        <v>1969.0</v>
+      </c>
+      <c r="C48" s="15">
+        <v>0.348</v>
+      </c>
+      <c r="D48" s="15">
+        <v>1.7650363182700302</v>
+      </c>
+      <c r="F48" s="18"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="20"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="19"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="14">
+        <v>1970.0</v>
+      </c>
+      <c r="C49" s="15">
+        <v>0.357</v>
+      </c>
+      <c r="D49" s="15">
+        <v>1.7199270979634833</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="18"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="20"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="19"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="14">
+        <v>1971.0</v>
+      </c>
+      <c r="C50" s="15">
+        <v>0.364</v>
+      </c>
+      <c r="D50" s="15">
+        <v>1.6689022179524664</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="18"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="20"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="19"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="14">
+        <v>1972.0</v>
+      </c>
+      <c r="C51" s="15">
+        <v>0.361</v>
+      </c>
+      <c r="D51" s="15">
+        <v>1.5864315397549842</v>
+      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="18"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="20"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="19"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="14">
+        <v>1973.0</v>
+      </c>
+      <c r="C52" s="15">
+        <v>0.388</v>
+      </c>
+      <c r="D52" s="15">
+        <v>1.6171012643809088</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="20"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="19"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="14">
+        <v>1974.0</v>
+      </c>
+      <c r="C53" s="15">
+        <v>0.532</v>
+      </c>
+      <c r="D53" s="15">
+        <v>2.034492701111382</v>
+      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="20"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="19"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="14">
+        <v>1975.0</v>
+      </c>
+      <c r="C54" s="15">
+        <v>0.567</v>
+      </c>
+      <c r="D54" s="15">
+        <v>1.9845632792321668</v>
+      </c>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="M54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="19"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="14">
+        <v>1976.0</v>
+      </c>
+      <c r="C55" s="15">
+        <v>0.59</v>
+      </c>
+      <c r="D55" s="15">
+        <v>1.9575773055647914</v>
+      </c>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="M55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="19"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="14">
+        <v>1977.0</v>
+      </c>
+      <c r="C56" s="15">
+        <v>0.622</v>
+      </c>
+      <c r="D56" s="15">
+        <v>1.9432211185427637</v>
+      </c>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="M56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="19"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="14">
+        <v>1978.0</v>
+      </c>
+      <c r="C57" s="15">
+        <v>0.627</v>
+      </c>
+      <c r="D57" s="15">
+        <v>1.8303257539492581</v>
+      </c>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="M57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="19"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="14">
+        <v>1979.0</v>
+      </c>
+      <c r="C58" s="15">
+        <v>0.857</v>
+      </c>
+      <c r="D58" s="15">
+        <v>2.3109693656954744</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="M58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="19"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="14">
+        <v>1980.0</v>
+      </c>
+      <c r="C59" s="15">
+        <v>1.191</v>
+      </c>
+      <c r="D59" s="15">
+        <v>2.945951664150348</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="M59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="19"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="14">
+        <v>1981.0</v>
+      </c>
+      <c r="C60" s="15">
+        <v>1.311</v>
+      </c>
+      <c r="D60" s="15">
+        <v>2.965880812036273</v>
+      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="M60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="19"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="14">
+        <v>1982.0</v>
+      </c>
+      <c r="C61" s="15">
+        <v>1.222</v>
+      </c>
+      <c r="D61" s="15">
+        <v>2.6030520861634</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="M61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="19"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="14">
+        <v>1983.0</v>
+      </c>
+      <c r="C62" s="15">
+        <v>1.158</v>
+      </c>
+      <c r="D62" s="15">
+        <v>2.3730082329879583</v>
+      </c>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="M62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="19"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="14">
+        <v>1984.0</v>
+      </c>
+      <c r="C63" s="15">
+        <v>1.129</v>
+      </c>
+      <c r="D63" s="15">
+        <v>2.2342866440702416</v>
+      </c>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="M63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="19"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="14">
+        <v>1985.0</v>
+      </c>
+      <c r="C64" s="15">
+        <v>1.115</v>
+      </c>
+      <c r="D64" s="15">
+        <v>2.138193658280922</v>
+      </c>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="M64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="19"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="14">
+        <v>1986.0</v>
+      </c>
+      <c r="C65" s="15">
+        <v>0.857</v>
+      </c>
+      <c r="D65" s="15">
+        <v>1.6109310557410734</v>
+      </c>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="M65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="19"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="14">
+        <v>1987.0</v>
+      </c>
+      <c r="C66" s="15">
+        <v>0.897</v>
+      </c>
+      <c r="D66" s="15">
+        <v>1.64416797194623</v>
+      </c>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="M66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="19"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="14">
+        <v>1988.0</v>
+      </c>
+      <c r="C67" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D67" s="15">
+        <v>1.5938546674841083</v>
+      </c>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="M67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="19"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="14">
+        <v>1989.0</v>
+      </c>
+      <c r="C68" s="15">
+        <v>0.997</v>
+      </c>
+      <c r="D68" s="15">
+        <v>1.699554276928811</v>
+      </c>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="M68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="19"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="14">
+        <v>1990.0</v>
+      </c>
+      <c r="C69" s="15">
+        <v>1.149</v>
+      </c>
+      <c r="D69" s="15">
+        <v>1.8888215745885315</v>
+      </c>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="M69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="19"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="14">
+        <v>1991.0</v>
+      </c>
+      <c r="C70" s="15">
+        <v>1.14</v>
+      </c>
+      <c r="D70" s="15">
+        <v>1.8136468780798884</v>
+      </c>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="M70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="19"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="14">
+        <v>1992.0</v>
+      </c>
+      <c r="C71" s="15">
+        <v>1.127</v>
+      </c>
+      <c r="D71" s="15">
+        <v>1.7529993198146494</v>
+      </c>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="M71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="19"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="14">
+        <v>1993.0</v>
+      </c>
+      <c r="C72" s="15">
+        <v>1.108</v>
+      </c>
+      <c r="D72" s="15">
+        <v>1.6833938102092791</v>
+      </c>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="M72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="19"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="14">
+        <v>1994.0</v>
+      </c>
+      <c r="C73" s="15">
+        <v>1.112</v>
+      </c>
+      <c r="D73" s="15">
+        <v>1.654278023988616</v>
+      </c>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="M73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="19"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="14">
+        <v>1995.0</v>
+      </c>
+      <c r="C74" s="15">
+        <v>1.147</v>
+      </c>
+      <c r="D74" s="15">
+        <v>1.671482515532898</v>
+      </c>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="M74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="19"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="14">
+        <v>1996.0</v>
+      </c>
+      <c r="C75" s="15">
+        <v>1.231</v>
+      </c>
+      <c r="D75" s="15">
+        <v>1.7617332298986952</v>
+      </c>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="M75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="19"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="14">
+        <v>1997.0</v>
+      </c>
+      <c r="C76" s="15">
+        <v>1.234</v>
+      </c>
+      <c r="D76" s="15">
+        <v>1.7363031072142745</v>
+      </c>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="M76" s="21"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="19"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="14">
+        <v>1998.0</v>
+      </c>
+      <c r="C77" s="15">
+        <v>1.059</v>
+      </c>
+      <c r="D77" s="15">
+        <v>1.4740645075387717</v>
+      </c>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="M77" s="21"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="19"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="14">
+        <v>1999.0</v>
+      </c>
+      <c r="C78" s="15">
+        <v>1.165</v>
+      </c>
+      <c r="D78" s="15">
+        <v>1.59718422531693</v>
+      </c>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="M78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="19"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="14">
+        <v>2000.0</v>
+      </c>
+      <c r="C79" s="15">
+        <v>1.51</v>
+      </c>
+      <c r="D79" s="15">
+        <v>2.0241084665453615</v>
+      </c>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="M79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="19"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="14">
+        <v>2001.0</v>
+      </c>
+      <c r="C80" s="15">
+        <v>1.461</v>
+      </c>
+      <c r="D80" s="15">
+        <v>1.9147692886309906</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="M80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="19"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="14">
+        <v>2002.0</v>
+      </c>
+      <c r="C81" s="15">
+        <v>1.358</v>
+      </c>
+      <c r="D81" s="15">
+        <v>1.7528849821846446</v>
+      </c>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="M81" s="21"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="19"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="14">
+        <v>2003.0</v>
+      </c>
+      <c r="C82" s="15">
+        <v>1.591</v>
+      </c>
+      <c r="D82" s="15">
+        <v>2.013481259007321</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="M82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="19"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="14">
+        <v>2004.0</v>
+      </c>
+      <c r="C83" s="15">
+        <v>1.88</v>
+      </c>
+      <c r="D83" s="15">
+        <v>2.315551615798922</v>
+      </c>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="M83" s="21"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="19"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="14">
+        <v>2005.0</v>
+      </c>
+      <c r="C84" s="15">
+        <v>2.295</v>
+      </c>
+      <c r="D84" s="15">
+        <v>2.738566606513893</v>
+      </c>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="M84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="19"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="14">
+        <v>2006.0</v>
+      </c>
+      <c r="C85" s="15">
+        <v>2.589</v>
+      </c>
+      <c r="D85" s="15">
+        <v>2.9973080241314576</v>
+      </c>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="M85" s="21"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="19"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="14">
+        <v>2007.0</v>
+      </c>
+      <c r="C86" s="15">
+        <v>2.801</v>
+      </c>
+      <c r="D86" s="15">
+        <v>3.1586895733379907</v>
+      </c>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="M86" s="21"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="19"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="14">
+        <v>2008.0</v>
+      </c>
+      <c r="C87" s="15">
+        <v>3.266</v>
+      </c>
+      <c r="D87" s="15">
+        <v>3.6122264071096066</v>
+      </c>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="M87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="19"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="14">
+        <v>2009.0</v>
+      </c>
+      <c r="C88" s="15">
+        <v>2.35</v>
+      </c>
+      <c r="D88" s="15">
+        <v>2.5795244999999998</v>
+      </c>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="M88" s="21"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="19"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="14">
+        <v>2010.0</v>
+      </c>
+      <c r="C89" s="15">
+        <v>2.788</v>
+      </c>
+      <c r="D89" s="15">
+        <v>3.0233883877851433</v>
+      </c>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="M89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="19"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="14">
+        <v>2011.0</v>
+      </c>
+      <c r="C90" s="15">
+        <v>3.527</v>
+      </c>
+      <c r="D90" s="15">
+        <v>3.7474054940906583</v>
+      </c>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="M90" s="21"/>
+      <c r="P90" s="21"/>
+      <c r="Q90" s="19"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="14">
+        <v>2012.0</v>
+      </c>
+      <c r="C91" s="15">
+        <v>3.644</v>
+      </c>
+      <c r="D91" s="15">
+        <v>3.8016893949474406</v>
+      </c>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="M91" s="21"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="19"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="14">
+        <v>2013.0</v>
+      </c>
+      <c r="C92" s="15">
+        <v>3.526</v>
+      </c>
+      <c r="D92" s="15">
+        <v>3.619583480627332</v>
+      </c>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="M92" s="21"/>
+      <c r="P92" s="21"/>
+      <c r="Q92" s="19"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="14">
+        <v>2014.0</v>
+      </c>
+      <c r="C93" s="15">
+        <v>3.367</v>
+      </c>
+      <c r="D93" s="15">
+        <v>3.4004884621754408</v>
+      </c>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="M93" s="21"/>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="19"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="25">
+        <v>2015.0</v>
+      </c>
+      <c r="C94" s="26">
+        <v>2.448</v>
+      </c>
+      <c r="D94" s="26">
+        <v>2.448</v>
+      </c>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="M94" s="21"/>
+      <c r="P94" s="21"/>
+      <c r="Q94" s="19"/>
+    </row>
+    <row r="95">
+      <c r="E95" s="27"/>
+      <c r="F95" s="24"/>
+      <c r="M95" s="21"/>
+      <c r="P95" s="21"/>
+      <c r="Q95" s="19"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E96" s="27"/>
+      <c r="F96" s="24"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="20"/>
+      <c r="P96" s="21"/>
+      <c r="Q96" s="19"/>
+    </row>
+    <row r="97" ht="15.0" customHeight="1">
+      <c r="B97" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="E97" s="24"/>
+      <c r="F97" s="29"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="20"/>
+      <c r="P97" s="21"/>
+      <c r="Q97" s="19"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="D98" s="30"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="31"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="20"/>
+      <c r="P98" s="21"/>
+      <c r="Q98" s="19"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="E99" s="24"/>
+      <c r="F99" s="29"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="20"/>
+      <c r="P99" s="21"/>
+      <c r="Q99" s="19"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="20"/>
+      <c r="P100" s="21"/>
+      <c r="Q100" s="19"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="33"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="20"/>
+      <c r="P101" s="21"/>
+      <c r="Q101" s="19"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="20"/>
+      <c r="P102" s="21"/>
+      <c r="Q102" s="19"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="20"/>
+      <c r="P103" s="21"/>
+      <c r="Q103" s="19"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="20"/>
+      <c r="P104" s="21"/>
+      <c r="Q104" s="19"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="20"/>
+      <c r="P105" s="21"/>
+      <c r="Q105" s="19"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="20"/>
+      <c r="P106" s="21"/>
+      <c r="Q106" s="19"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="20"/>
+      <c r="P107" s="21"/>
+      <c r="Q107" s="19"/>
+    </row>
+    <row r="108">
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="20"/>
+      <c r="P108" s="21"/>
+      <c r="Q108" s="36"/>
+    </row>
+    <row r="109">
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="20"/>
+      <c r="P109" s="21"/>
+      <c r="Q109" s="19"/>
+    </row>
+    <row r="110">
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="L110" s="19"/>
+      <c r="M110" s="20"/>
+      <c r="P110" s="21"/>
+      <c r="Q110" s="19"/>
+    </row>
+    <row r="111">
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="L111" s="19"/>
+      <c r="M111" s="20"/>
+      <c r="P111" s="21"/>
+      <c r="Q111" s="19"/>
+    </row>
+    <row r="112">
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="L112" s="19"/>
+      <c r="M112" s="20"/>
+      <c r="P112" s="21"/>
+      <c r="Q112" s="19"/>
+    </row>
+    <row r="113">
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="L113" s="19"/>
+      <c r="M113" s="20"/>
+      <c r="P113" s="21"/>
+      <c r="Q113" s="19"/>
+    </row>
+    <row r="114">
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="20"/>
+      <c r="P114" s="21"/>
+      <c r="Q114" s="19"/>
+    </row>
+    <row r="115">
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="L115" s="19"/>
+      <c r="M115" s="20"/>
+      <c r="P115" s="21"/>
+      <c r="Q115" s="19"/>
+    </row>
+    <row r="116">
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="L116" s="19"/>
+      <c r="M116" s="20"/>
+      <c r="P116" s="20"/>
+      <c r="Q116" s="19"/>
+    </row>
+    <row r="117">
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118">
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119">
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120">
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
+    <row r="501"/>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
+    <row r="510"/>
+    <row r="511"/>
+    <row r="512"/>
+    <row r="513"/>
+    <row r="514"/>
+    <row r="515"/>
+    <row r="516"/>
+    <row r="517"/>
+    <row r="518"/>
+    <row r="519"/>
+    <row r="520"/>
+    <row r="521"/>
+    <row r="522"/>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525"/>
+    <row r="526"/>
+    <row r="527"/>
+    <row r="528"/>
+    <row r="529"/>
+    <row r="530"/>
+    <row r="531"/>
+    <row r="532"/>
+    <row r="533"/>
+    <row r="534"/>
+    <row r="535"/>
+    <row r="536"/>
+    <row r="537"/>
+    <row r="538"/>
+    <row r="539"/>
+    <row r="540"/>
+    <row r="541"/>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544"/>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
+    <row r="548"/>
+    <row r="549"/>
+    <row r="550"/>
+    <row r="551"/>
+    <row r="552"/>
+    <row r="553"/>
+    <row r="554"/>
+    <row r="555"/>
+    <row r="556"/>
+    <row r="557"/>
+    <row r="558"/>
+    <row r="559"/>
+    <row r="560"/>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563"/>
+    <row r="564"/>
+    <row r="565"/>
+    <row r="566"/>
+    <row r="567"/>
+    <row r="568"/>
+    <row r="569"/>
+    <row r="570"/>
+    <row r="571"/>
+    <row r="572"/>
+    <row r="573"/>
+    <row r="574"/>
+    <row r="575"/>
+    <row r="576"/>
+    <row r="577"/>
+    <row r="578"/>
+    <row r="579"/>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582"/>
+    <row r="583"/>
+    <row r="584"/>
+    <row r="585"/>
+    <row r="586"/>
+    <row r="587"/>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
+    <row r="591"/>
+    <row r="592"/>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595"/>
+    <row r="596"/>
+    <row r="597"/>
+    <row r="598"/>
+    <row r="599"/>
+    <row r="600"/>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603"/>
+    <row r="604"/>
+    <row r="605"/>
+    <row r="606"/>
+    <row r="607"/>
+    <row r="608"/>
+    <row r="609"/>
+    <row r="610"/>
+    <row r="611"/>
+    <row r="612"/>
+    <row r="613"/>
+    <row r="614"/>
+    <row r="615"/>
+    <row r="616"/>
+    <row r="617"/>
+    <row r="618"/>
+    <row r="619"/>
+    <row r="620"/>
+    <row r="621"/>
+    <row r="622"/>
+    <row r="623"/>
+    <row r="624"/>
+    <row r="625"/>
+    <row r="626"/>
+    <row r="627"/>
+    <row r="628"/>
+    <row r="629"/>
+    <row r="630"/>
+    <row r="631"/>
+    <row r="632"/>
+    <row r="633"/>
+    <row r="634"/>
+    <row r="635"/>
+    <row r="636"/>
+    <row r="637"/>
+    <row r="638"/>
+    <row r="639"/>
+    <row r="640"/>
+    <row r="641"/>
+    <row r="642"/>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649"/>
+    <row r="650"/>
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655"/>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
+    <row r="659"/>
+    <row r="660"/>
+    <row r="661"/>
+    <row r="662"/>
+    <row r="663"/>
+    <row r="664"/>
+    <row r="665"/>
+    <row r="666"/>
+    <row r="667"/>
+    <row r="668"/>
+    <row r="669"/>
+    <row r="670"/>
+    <row r="671"/>
+    <row r="672"/>
+    <row r="673"/>
+    <row r="674"/>
+    <row r="675"/>
+    <row r="676"/>
+    <row r="677"/>
+    <row r="678"/>
+    <row r="679"/>
+    <row r="680"/>
+    <row r="681"/>
+    <row r="682"/>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685"/>
+    <row r="686"/>
+    <row r="687"/>
+    <row r="688"/>
+    <row r="689"/>
+    <row r="690"/>
+    <row r="691"/>
+    <row r="692"/>
+    <row r="693"/>
+    <row r="694"/>
+    <row r="695"/>
+    <row r="696"/>
+    <row r="697"/>
+    <row r="698"/>
+    <row r="699"/>
+    <row r="700"/>
+    <row r="701"/>
+    <row r="702"/>
+    <row r="703"/>
+    <row r="704"/>
+    <row r="705"/>
+    <row r="706"/>
+    <row r="707"/>
+    <row r="708"/>
+    <row r="709"/>
+    <row r="710"/>
+    <row r="711"/>
+    <row r="712"/>
+    <row r="713"/>
+    <row r="714"/>
+    <row r="715"/>
+    <row r="716"/>
+    <row r="717"/>
+    <row r="718"/>
+    <row r="719"/>
+    <row r="720"/>
+    <row r="721"/>
+    <row r="722"/>
+    <row r="723"/>
+    <row r="724"/>
+    <row r="725"/>
+    <row r="726"/>
+    <row r="727"/>
+    <row r="728"/>
+    <row r="729"/>
+    <row r="730"/>
+    <row r="731"/>
+    <row r="732"/>
+    <row r="733"/>
+    <row r="734"/>
+    <row r="735"/>
+    <row r="736"/>
+    <row r="737"/>
+    <row r="738"/>
+    <row r="739"/>
+    <row r="740"/>
+    <row r="741"/>
+    <row r="742"/>
+    <row r="743"/>
+    <row r="744"/>
+    <row r="745"/>
+    <row r="746"/>
+    <row r="747"/>
+    <row r="748"/>
+    <row r="749"/>
+    <row r="750"/>
+    <row r="751"/>
+    <row r="752"/>
+    <row r="753"/>
+    <row r="754"/>
+    <row r="755"/>
+    <row r="756"/>
+    <row r="757"/>
+    <row r="758"/>
+    <row r="759"/>
+    <row r="760"/>
+    <row r="761"/>
+    <row r="762"/>
+    <row r="763"/>
+    <row r="764"/>
+    <row r="765"/>
+    <row r="766"/>
+    <row r="767"/>
+    <row r="768"/>
+    <row r="769"/>
+    <row r="770"/>
+    <row r="771"/>
+    <row r="772"/>
+    <row r="773"/>
+    <row r="774"/>
+    <row r="775"/>
+    <row r="776"/>
+    <row r="777"/>
+    <row r="778"/>
+    <row r="779"/>
+    <row r="780"/>
+    <row r="781"/>
+    <row r="782"/>
+    <row r="783"/>
+    <row r="784"/>
+    <row r="785"/>
+    <row r="786"/>
+    <row r="787"/>
+    <row r="788"/>
+    <row r="789"/>
+    <row r="790"/>
+    <row r="791"/>
+    <row r="792"/>
+    <row r="793"/>
+    <row r="794"/>
+    <row r="795"/>
+    <row r="796"/>
+    <row r="797"/>
+    <row r="798"/>
+    <row r="799"/>
+    <row r="800"/>
+    <row r="801"/>
+    <row r="802"/>
+    <row r="803"/>
+    <row r="804"/>
+    <row r="805"/>
+    <row r="806"/>
+    <row r="807"/>
+    <row r="808"/>
+    <row r="809"/>
+    <row r="810"/>
+    <row r="811"/>
+    <row r="812"/>
+    <row r="813"/>
+    <row r="814"/>
+    <row r="815"/>
+    <row r="816"/>
+    <row r="817"/>
+    <row r="818"/>
+    <row r="819"/>
+    <row r="820"/>
+    <row r="821"/>
+    <row r="822"/>
+    <row r="823"/>
+    <row r="824"/>
+    <row r="825"/>
+    <row r="826"/>
+    <row r="827"/>
+    <row r="828"/>
+    <row r="829"/>
+    <row r="830"/>
+    <row r="831"/>
+    <row r="832"/>
+    <row r="833"/>
+    <row r="834"/>
+    <row r="835"/>
+    <row r="836"/>
+    <row r="837"/>
+    <row r="838"/>
+    <row r="839"/>
+    <row r="840"/>
+    <row r="841"/>
+    <row r="842"/>
+    <row r="843"/>
+    <row r="844"/>
+    <row r="845"/>
+    <row r="846"/>
+    <row r="847"/>
+    <row r="848"/>
+    <row r="849"/>
+    <row r="850"/>
+    <row r="851"/>
+    <row r="852"/>
+    <row r="853"/>
+    <row r="854"/>
+    <row r="855"/>
+    <row r="856"/>
+    <row r="857"/>
+    <row r="858"/>
+    <row r="859"/>
+    <row r="860"/>
+    <row r="861"/>
+    <row r="862"/>
+    <row r="863"/>
+    <row r="864"/>
+    <row r="865"/>
+    <row r="866"/>
+    <row r="867"/>
+    <row r="868"/>
+    <row r="869"/>
+    <row r="870"/>
+    <row r="871"/>
+    <row r="872"/>
+    <row r="873"/>
+    <row r="874"/>
+    <row r="875"/>
+    <row r="876"/>
+    <row r="877"/>
+    <row r="878"/>
+    <row r="879"/>
+    <row r="880"/>
+    <row r="881"/>
+    <row r="882"/>
+    <row r="883"/>
+    <row r="884"/>
+    <row r="885"/>
+    <row r="886"/>
+    <row r="887"/>
+    <row r="888"/>
+    <row r="889"/>
+    <row r="890"/>
+    <row r="891"/>
+    <row r="892"/>
+    <row r="893"/>
+    <row r="894"/>
+    <row r="895"/>
+    <row r="896"/>
+    <row r="897"/>
+    <row r="898"/>
+    <row r="899"/>
+    <row r="900"/>
+    <row r="901"/>
+    <row r="902"/>
+    <row r="903"/>
+    <row r="904"/>
+    <row r="905"/>
+    <row r="906"/>
+    <row r="907"/>
+    <row r="908"/>
+    <row r="909"/>
+    <row r="910"/>
+    <row r="911"/>
+    <row r="912"/>
+    <row r="913"/>
+    <row r="914"/>
+    <row r="915"/>
+    <row r="916"/>
+    <row r="917"/>
+    <row r="918"/>
+    <row r="919"/>
+    <row r="920"/>
+    <row r="921"/>
+    <row r="922"/>
+    <row r="923"/>
+    <row r="924"/>
+    <row r="925"/>
+    <row r="926"/>
+    <row r="927"/>
+    <row r="928"/>
+    <row r="929"/>
+    <row r="930"/>
+    <row r="931"/>
+    <row r="932"/>
+    <row r="933"/>
+    <row r="934"/>
+    <row r="935"/>
+    <row r="936"/>
+    <row r="937"/>
+    <row r="938"/>
+    <row r="939"/>
+    <row r="940"/>
+    <row r="941"/>
+    <row r="942"/>
+    <row r="943"/>
+    <row r="944"/>
+    <row r="945"/>
+    <row r="946"/>
+    <row r="947"/>
+    <row r="948"/>
+    <row r="949"/>
+    <row r="950"/>
+    <row r="951"/>
+    <row r="952"/>
+    <row r="953"/>
+    <row r="954"/>
+    <row r="955"/>
+    <row r="956"/>
+    <row r="957"/>
+    <row r="958"/>
+    <row r="959"/>
+    <row r="960"/>
+    <row r="961"/>
+    <row r="962"/>
+    <row r="963"/>
+    <row r="964"/>
+    <row r="965"/>
+    <row r="966"/>
+    <row r="967"/>
+    <row r="968"/>
+    <row r="969"/>
+    <row r="970"/>
+    <row r="971"/>
+    <row r="972"/>
+    <row r="973"/>
+    <row r="974"/>
+    <row r="975"/>
+    <row r="976"/>
+    <row r="977"/>
+    <row r="978"/>
+    <row r="979"/>
+    <row r="980"/>
+    <row r="981"/>
+    <row r="982"/>
+    <row r="983"/>
+    <row r="984"/>
+    <row r="985"/>
+    <row r="986"/>
+    <row r="987"/>
+    <row r="988"/>
+    <row r="989"/>
+    <row r="990"/>
+    <row r="991"/>
+    <row r="992"/>
+    <row r="993"/>
+    <row r="994"/>
+    <row r="995"/>
+    <row r="996"/>
+    <row r="997"/>
+    <row r="998"/>
+    <row r="999"/>
+    <row r="1000"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A101:A102"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="B104"/>
+    <hyperlink r:id="rId3" location="reqid=9&amp;step=3&amp;isuri=1&amp;903=13 " ref="B107"/>
+  </hyperlinks>
+  <printOptions/>
+  <pageMargins bottom="0.59" footer="0.0" header="0.0" left="0.25" right="0.34" top="0.49"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId4"/>
+</worksheet>
 </file>